--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.11307465237774</v>
+        <v>7.291246333333333</v>
       </c>
       <c r="H2">
-        <v>5.11307465237774</v>
+        <v>21.873739</v>
       </c>
       <c r="I2">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597628</v>
       </c>
       <c r="J2">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597627</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N2">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q2">
-        <v>47.55963367425709</v>
+        <v>93.25746858836233</v>
       </c>
       <c r="R2">
-        <v>47.55963367425709</v>
+        <v>839.317217295261</v>
       </c>
       <c r="S2">
-        <v>0.005172403931056486</v>
+        <v>0.008588854291110308</v>
       </c>
       <c r="T2">
-        <v>0.005172403931056486</v>
+        <v>0.008588854291110306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.11307465237774</v>
+        <v>7.291246333333333</v>
       </c>
       <c r="H3">
-        <v>5.11307465237774</v>
+        <v>21.873739</v>
       </c>
       <c r="I3">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597628</v>
       </c>
       <c r="J3">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597627</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q3">
-        <v>18.51423794246186</v>
+        <v>26.459174654048</v>
       </c>
       <c r="R3">
-        <v>18.51423794246186</v>
+        <v>238.132571886432</v>
       </c>
       <c r="S3">
-        <v>0.002013537736013708</v>
+        <v>0.002436844997045271</v>
       </c>
       <c r="T3">
-        <v>0.002013537736013708</v>
+        <v>0.00243684499704527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.11307465237774</v>
+        <v>7.291246333333333</v>
       </c>
       <c r="H4">
-        <v>5.11307465237774</v>
+        <v>21.873739</v>
       </c>
       <c r="I4">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597628</v>
       </c>
       <c r="J4">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597627</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N4">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q4">
-        <v>31.88773169992674</v>
+        <v>50.01638951995133</v>
       </c>
       <c r="R4">
-        <v>31.88773169992674</v>
+        <v>450.147505679562</v>
       </c>
       <c r="S4">
-        <v>0.003467987788275411</v>
+        <v>0.004606424431810995</v>
       </c>
       <c r="T4">
-        <v>0.003467987788275411</v>
+        <v>0.004606424431810994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.11307465237774</v>
+        <v>7.291246333333333</v>
       </c>
       <c r="H5">
-        <v>5.11307465237774</v>
+        <v>21.873739</v>
       </c>
       <c r="I5">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597628</v>
       </c>
       <c r="J5">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597627</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N5">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q5">
-        <v>54.98489396108999</v>
+        <v>79.62127518789822</v>
       </c>
       <c r="R5">
-        <v>54.98489396108999</v>
+        <v>716.5914766910839</v>
       </c>
       <c r="S5">
-        <v>0.005979946852008812</v>
+        <v>0.007332984064577035</v>
       </c>
       <c r="T5">
-        <v>0.005979946852008812</v>
+        <v>0.007332984064577032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.11307465237774</v>
+        <v>7.291246333333333</v>
       </c>
       <c r="H6">
-        <v>5.11307465237774</v>
+        <v>21.873739</v>
       </c>
       <c r="I6">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597628</v>
       </c>
       <c r="J6">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N6">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q6">
-        <v>79.77579904527853</v>
+        <v>116.1417208610225</v>
       </c>
       <c r="R6">
-        <v>79.77579904527853</v>
+        <v>1045.275487749203</v>
       </c>
       <c r="S6">
-        <v>0.008676110909750748</v>
+        <v>0.01069645501527811</v>
       </c>
       <c r="T6">
-        <v>0.008676110909750748</v>
+        <v>0.01069645501527811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.11307465237774</v>
+        <v>7.291246333333333</v>
       </c>
       <c r="H7">
-        <v>5.11307465237774</v>
+        <v>21.873739</v>
       </c>
       <c r="I7">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597628</v>
       </c>
       <c r="J7">
-        <v>0.02906049853549129</v>
+        <v>0.03926979358597627</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N7">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q7">
-        <v>34.48550166830567</v>
+        <v>60.89396660476868</v>
       </c>
       <c r="R7">
-        <v>34.48550166830567</v>
+        <v>548.0456994429181</v>
       </c>
       <c r="S7">
-        <v>0.003750511318386128</v>
+        <v>0.005608230786154559</v>
       </c>
       <c r="T7">
-        <v>0.003750511318386128</v>
+        <v>0.005608230786154557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.0067751432394</v>
+        <v>14.16007</v>
       </c>
       <c r="H8">
-        <v>14.0067751432394</v>
+        <v>42.48021</v>
       </c>
       <c r="I8">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="J8">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N8">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q8">
-        <v>130.2850320130514</v>
+        <v>181.11201060331</v>
       </c>
       <c r="R8">
-        <v>130.2850320130514</v>
+        <v>1630.00809542979</v>
       </c>
       <c r="S8">
-        <v>0.01416930198322546</v>
+        <v>0.016680108231417</v>
       </c>
       <c r="T8">
-        <v>0.01416930198322546</v>
+        <v>0.016680108231417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.0067751432394</v>
+        <v>14.16007</v>
       </c>
       <c r="H9">
-        <v>14.0067751432394</v>
+        <v>42.48021</v>
       </c>
       <c r="I9">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="J9">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q9">
-        <v>50.71797019194712</v>
+        <v>51.38542138271999</v>
       </c>
       <c r="R9">
-        <v>50.71797019194712</v>
+        <v>462.46879244448</v>
       </c>
       <c r="S9">
-        <v>0.005515892535943314</v>
+        <v>0.004732509938604116</v>
       </c>
       <c r="T9">
-        <v>0.005515892535943314</v>
+        <v>0.004732509938604116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.0067751432394</v>
+        <v>14.16007</v>
       </c>
       <c r="H10">
-        <v>14.0067751432394</v>
+        <v>42.48021</v>
       </c>
       <c r="I10">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="J10">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N10">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q10">
-        <v>87.35336722320633</v>
+        <v>97.13504994501999</v>
       </c>
       <c r="R10">
-        <v>87.35336722320633</v>
+        <v>874.21544950518</v>
       </c>
       <c r="S10">
-        <v>0.009500218254643466</v>
+        <v>0.008945972940998415</v>
       </c>
       <c r="T10">
-        <v>0.009500218254643466</v>
+        <v>0.008945972940998413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.0067751432394</v>
+        <v>14.16007</v>
       </c>
       <c r="H11">
-        <v>14.0067751432394</v>
+        <v>42.48021</v>
       </c>
       <c r="I11">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="J11">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N11">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q11">
-        <v>150.6258168223107</v>
+        <v>154.6296447283066</v>
       </c>
       <c r="R11">
-        <v>150.6258168223107</v>
+        <v>1391.66680255476</v>
       </c>
       <c r="S11">
-        <v>0.0163814879733193</v>
+        <v>0.01424112736235382</v>
       </c>
       <c r="T11">
-        <v>0.0163814879733193</v>
+        <v>0.01424112736235382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.0067751432394</v>
+        <v>14.16007</v>
       </c>
       <c r="H12">
-        <v>14.0067751432394</v>
+        <v>42.48021</v>
       </c>
       <c r="I12">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="J12">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N12">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q12">
-        <v>218.5381116193643</v>
+        <v>225.5547024647967</v>
       </c>
       <c r="R12">
-        <v>218.5381116193643</v>
+        <v>2029.99232218317</v>
       </c>
       <c r="S12">
-        <v>0.02376736951692507</v>
+        <v>0.02077320458585372</v>
       </c>
       <c r="T12">
-        <v>0.02376736951692507</v>
+        <v>0.02077320458585372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.0067751432394</v>
+        <v>14.16007</v>
       </c>
       <c r="H13">
-        <v>14.0067751432394</v>
+        <v>42.48021</v>
       </c>
       <c r="I13">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="J13">
-        <v>0.0796084344960182</v>
+        <v>0.07626446846553875</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N13">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q13">
-        <v>94.46970764354873</v>
+        <v>118.26000525578</v>
       </c>
       <c r="R13">
-        <v>94.46970764354873</v>
+        <v>1064.34004730202</v>
       </c>
       <c r="S13">
-        <v>0.0102741642319616</v>
+        <v>0.01089154540631168</v>
       </c>
       <c r="T13">
-        <v>0.0102741642319616</v>
+        <v>0.01089154540631168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.6865724063764</v>
+        <v>58.14950233333332</v>
       </c>
       <c r="H14">
-        <v>51.6865724063764</v>
+        <v>174.448507</v>
       </c>
       <c r="I14">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="J14">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N14">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q14">
-        <v>480.7663913888072</v>
+        <v>743.7514986276101</v>
       </c>
       <c r="R14">
-        <v>480.7663913888072</v>
+        <v>6693.763487648492</v>
       </c>
       <c r="S14">
-        <v>0.05228631468802313</v>
+        <v>0.06849824842130266</v>
       </c>
       <c r="T14">
-        <v>0.05228631468802313</v>
+        <v>0.06849824842130266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.6865724063764</v>
+        <v>58.14950233333332</v>
       </c>
       <c r="H15">
-        <v>51.6865724063764</v>
+        <v>174.448507</v>
       </c>
       <c r="I15">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="J15">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q15">
-        <v>187.1550026199853</v>
+        <v>211.0184964194239</v>
       </c>
       <c r="R15">
-        <v>187.1550026199853</v>
+        <v>1899.166467774816</v>
       </c>
       <c r="S15">
-        <v>0.02035426256431569</v>
+        <v>0.01943444472501783</v>
       </c>
       <c r="T15">
-        <v>0.02035426256431569</v>
+        <v>0.01943444472501783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.6865724063764</v>
+        <v>58.14950233333332</v>
       </c>
       <c r="H16">
-        <v>51.6865724063764</v>
+        <v>174.448507</v>
       </c>
       <c r="I16">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="J16">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N16">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q16">
-        <v>322.3437296415998</v>
+        <v>398.8931420131673</v>
       </c>
       <c r="R16">
-        <v>322.3437296415998</v>
+        <v>3590.038278118505</v>
       </c>
       <c r="S16">
-        <v>0.03505687166913748</v>
+        <v>0.03673738014053067</v>
       </c>
       <c r="T16">
-        <v>0.03505687166913748</v>
+        <v>0.03673738014053066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.6865724063764</v>
+        <v>58.14950233333332</v>
       </c>
       <c r="H17">
-        <v>51.6865724063764</v>
+        <v>174.448507</v>
       </c>
       <c r="I17">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="J17">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N17">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q17">
-        <v>555.8261703953797</v>
+        <v>634.9994658876101</v>
       </c>
       <c r="R17">
-        <v>555.8261703953797</v>
+        <v>5714.99519298849</v>
       </c>
       <c r="S17">
-        <v>0.06044952928839065</v>
+        <v>0.05848237111726784</v>
       </c>
       <c r="T17">
-        <v>0.06044952928839065</v>
+        <v>0.05848237111726782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.6865724063764</v>
+        <v>58.14950233333332</v>
       </c>
       <c r="H18">
-        <v>51.6865724063764</v>
+        <v>174.448507</v>
       </c>
       <c r="I18">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="J18">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N18">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q18">
-        <v>806.4301607082621</v>
+        <v>926.2591002213264</v>
       </c>
       <c r="R18">
-        <v>806.4301607082621</v>
+        <v>8336.331901991938</v>
       </c>
       <c r="S18">
-        <v>0.08770426117953241</v>
+        <v>0.08530688821000966</v>
       </c>
       <c r="T18">
-        <v>0.08770426117953241</v>
+        <v>0.08530688821000966</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.6865724063764</v>
+        <v>58.14950233333332</v>
       </c>
       <c r="H19">
-        <v>51.6865724063764</v>
+        <v>174.448507</v>
       </c>
       <c r="I19">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="J19">
-        <v>0.2937640585829451</v>
+        <v>0.3131863675099962</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N19">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O19">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P19">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q19">
-        <v>348.603824534462</v>
+        <v>485.6445237601927</v>
       </c>
       <c r="R19">
-        <v>348.603824534462</v>
+        <v>4370.800713841734</v>
       </c>
       <c r="S19">
-        <v>0.03791281919354571</v>
+        <v>0.04472703489586754</v>
       </c>
       <c r="T19">
-        <v>0.03791281919354571</v>
+        <v>0.04472703489586753</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.2757420612858</v>
+        <v>56.31960166666667</v>
       </c>
       <c r="H20">
-        <v>56.2757420612858</v>
+        <v>168.958805</v>
       </c>
       <c r="I20">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460123</v>
       </c>
       <c r="J20">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460122</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N20">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O20">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P20">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q20">
-        <v>523.452884838499</v>
+        <v>720.3464597440217</v>
       </c>
       <c r="R20">
-        <v>523.452884838499</v>
+        <v>6483.118137696195</v>
       </c>
       <c r="S20">
-        <v>0.05692873451897553</v>
+        <v>0.06634268413576297</v>
       </c>
       <c r="T20">
-        <v>0.05692873451897553</v>
+        <v>0.06634268413576296</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.2757420612858</v>
+        <v>56.31960166666667</v>
       </c>
       <c r="H21">
-        <v>56.2757420612858</v>
+        <v>168.958805</v>
       </c>
       <c r="I21">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460123</v>
       </c>
       <c r="J21">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460122</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P21">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q21">
-        <v>203.7722016099916</v>
+        <v>204.37797720976</v>
       </c>
       <c r="R21">
-        <v>203.7722016099916</v>
+        <v>1839.40179488784</v>
       </c>
       <c r="S21">
-        <v>0.02216148559651452</v>
+        <v>0.01882286419669713</v>
       </c>
       <c r="T21">
-        <v>0.02216148559651452</v>
+        <v>0.01882286419669712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.2757420612858</v>
+        <v>56.31960166666667</v>
       </c>
       <c r="H22">
-        <v>56.2757420612858</v>
+        <v>168.958805</v>
       </c>
       <c r="I22">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460123</v>
       </c>
       <c r="J22">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460122</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N22">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O22">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P22">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q22">
-        <v>350.9641235592095</v>
+        <v>386.3404150385767</v>
       </c>
       <c r="R22">
-        <v>350.9641235592095</v>
+        <v>3477.06373534719</v>
       </c>
       <c r="S22">
-        <v>0.03816951629171282</v>
+        <v>0.03558129532960002</v>
       </c>
       <c r="T22">
-        <v>0.03816951629171282</v>
+        <v>0.03558129532960001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.2757420612858</v>
+        <v>56.31960166666667</v>
       </c>
       <c r="H23">
-        <v>56.2757420612858</v>
+        <v>168.958805</v>
       </c>
       <c r="I23">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460123</v>
       </c>
       <c r="J23">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460122</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N23">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O23">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P23">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q23">
-        <v>605.1771038356535</v>
+        <v>615.0167334593978</v>
       </c>
       <c r="R23">
-        <v>605.1771038356535</v>
+        <v>5535.150601134579</v>
       </c>
       <c r="S23">
-        <v>0.06581674813360112</v>
+        <v>0.05664199543731315</v>
       </c>
       <c r="T23">
-        <v>0.06581674813360112</v>
+        <v>0.05664199543731312</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.2757420612858</v>
+        <v>56.31960166666667</v>
       </c>
       <c r="H24">
-        <v>56.2757420612858</v>
+        <v>168.958805</v>
       </c>
       <c r="I24">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460123</v>
       </c>
       <c r="J24">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460122</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N24">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O24">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P24">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q24">
-        <v>878.0318291885945</v>
+        <v>897.1107485246094</v>
       </c>
       <c r="R24">
-        <v>878.0318291885945</v>
+        <v>8073.996736721486</v>
       </c>
       <c r="S24">
-        <v>0.09549138489992259</v>
+        <v>0.08262237457974819</v>
       </c>
       <c r="T24">
-        <v>0.09549138489992259</v>
+        <v>0.08262237457974818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.2757420612858</v>
+        <v>56.31960166666667</v>
       </c>
       <c r="H25">
-        <v>56.2757420612858</v>
+        <v>168.958805</v>
       </c>
       <c r="I25">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460123</v>
       </c>
       <c r="J25">
-        <v>0.3198469083558498</v>
+        <v>0.3033307381460122</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N25">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O25">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P25">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q25">
-        <v>379.5558110690063</v>
+        <v>470.3618265378234</v>
       </c>
       <c r="R25">
-        <v>379.5558110690063</v>
+        <v>4233.256438840411</v>
       </c>
       <c r="S25">
-        <v>0.04127903891512318</v>
+        <v>0.04331952446689086</v>
       </c>
       <c r="T25">
-        <v>0.04127903891512318</v>
+        <v>0.04331952446689084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.6920098036114</v>
+        <v>43.51145333333333</v>
       </c>
       <c r="H26">
-        <v>42.6920098036114</v>
+        <v>130.53436</v>
       </c>
       <c r="I26">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="J26">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N26">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O26">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P26">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q26">
-        <v>397.1028168214487</v>
+        <v>556.5259774472933</v>
       </c>
       <c r="R26">
-        <v>397.1028168214487</v>
+        <v>5008.733797025639</v>
       </c>
       <c r="S26">
-        <v>0.04318738417601888</v>
+        <v>0.05125509626055872</v>
       </c>
       <c r="T26">
-        <v>0.04318738417601888</v>
+        <v>0.05125509626055872</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>42.6920098036114</v>
+        <v>43.51145333333333</v>
       </c>
       <c r="H27">
-        <v>42.6920098036114</v>
+        <v>130.53436</v>
       </c>
       <c r="I27">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="J27">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P27">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q27">
-        <v>154.5860527145659</v>
+        <v>157.89853895552</v>
       </c>
       <c r="R27">
-        <v>154.5860527145659</v>
+        <v>1421.08685059968</v>
       </c>
       <c r="S27">
-        <v>0.01681218808840659</v>
+        <v>0.01454218696257216</v>
       </c>
       <c r="T27">
-        <v>0.01681218808840659</v>
+        <v>0.01454218696257216</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>42.6920098036114</v>
+        <v>43.51145333333333</v>
       </c>
       <c r="H28">
-        <v>42.6920098036114</v>
+        <v>130.53436</v>
       </c>
       <c r="I28">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="J28">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N28">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O28">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P28">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q28">
-        <v>266.2490667362212</v>
+        <v>298.4792584156533</v>
       </c>
       <c r="R28">
-        <v>266.2490667362212</v>
+        <v>2686.31332574088</v>
       </c>
       <c r="S28">
-        <v>0.02895623058955497</v>
+        <v>0.02748943219514559</v>
       </c>
       <c r="T28">
-        <v>0.02895623058955497</v>
+        <v>0.02748943219514559</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>42.6920098036114</v>
+        <v>43.51145333333333</v>
       </c>
       <c r="H29">
-        <v>42.6920098036114</v>
+        <v>130.53436</v>
       </c>
       <c r="I29">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="J29">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N29">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O29">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P29">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q29">
-        <v>459.1005982957369</v>
+        <v>475.1502337591288</v>
       </c>
       <c r="R29">
-        <v>459.1005982957369</v>
+        <v>4276.352103832159</v>
       </c>
       <c r="S29">
-        <v>0.04993002586268024</v>
+        <v>0.0437605286302338</v>
       </c>
       <c r="T29">
-        <v>0.04993002586268024</v>
+        <v>0.04376052863023379</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>42.6920098036114</v>
+        <v>43.51145333333333</v>
       </c>
       <c r="H30">
-        <v>42.6920098036114</v>
+        <v>130.53436</v>
       </c>
       <c r="I30">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="J30">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N30">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O30">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P30">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q30">
-        <v>666.0941657380585</v>
+        <v>693.0907057953021</v>
       </c>
       <c r="R30">
-        <v>666.0941657380585</v>
+        <v>6237.81635215772</v>
       </c>
       <c r="S30">
-        <v>0.07244185489137164</v>
+        <v>0.06383247554010398</v>
       </c>
       <c r="T30">
-        <v>0.07244185489137164</v>
+        <v>0.06383247554010398</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>42.6920098036114</v>
+        <v>43.51145333333333</v>
       </c>
       <c r="H31">
-        <v>42.6920098036114</v>
+        <v>130.53436</v>
       </c>
       <c r="I31">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="J31">
-        <v>0.2426428661271525</v>
+        <v>0.2343475604732011</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N31">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O31">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P31">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q31">
-        <v>287.9393467531552</v>
+        <v>363.3926032771467</v>
       </c>
       <c r="R31">
-        <v>287.9393467531552</v>
+        <v>3270.53342949432</v>
       </c>
       <c r="S31">
-        <v>0.03131518251912022</v>
+        <v>0.03346784088458685</v>
       </c>
       <c r="T31">
-        <v>0.03131518251912022</v>
+        <v>0.03346784088458685</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.17169438175937</v>
+        <v>6.238731333333333</v>
       </c>
       <c r="H32">
-        <v>6.17169438175937</v>
+        <v>18.716194</v>
       </c>
       <c r="I32">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="J32">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N32">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O32">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P32">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q32">
-        <v>57.40646165012446</v>
+        <v>79.79545125086732</v>
       </c>
       <c r="R32">
-        <v>57.40646165012446</v>
+        <v>718.1590612578059</v>
       </c>
       <c r="S32">
-        <v>0.006243307295864814</v>
+        <v>0.007349025383824547</v>
       </c>
       <c r="T32">
-        <v>0.006243307295864814</v>
+        <v>0.007349025383824547</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.17169438175937</v>
+        <v>6.238731333333333</v>
       </c>
       <c r="H33">
-        <v>6.17169438175937</v>
+        <v>18.716194</v>
       </c>
       <c r="I33">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="J33">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N33">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O33">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P33">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q33">
-        <v>22.34745746161003</v>
+        <v>22.639707180608</v>
       </c>
       <c r="R33">
-        <v>22.34745746161003</v>
+        <v>203.757364625472</v>
       </c>
       <c r="S33">
-        <v>0.002430424035963833</v>
+        <v>0.002085078536990348</v>
       </c>
       <c r="T33">
-        <v>0.002430424035963833</v>
+        <v>0.002085078536990347</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.17169438175937</v>
+        <v>6.238731333333333</v>
       </c>
       <c r="H34">
-        <v>6.17169438175937</v>
+        <v>18.716194</v>
       </c>
       <c r="I34">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="J34">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N34">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O34">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P34">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q34">
-        <v>38.48982226143896</v>
+        <v>42.79636185816133</v>
       </c>
       <c r="R34">
-        <v>38.48982226143896</v>
+        <v>385.1672567234519</v>
       </c>
       <c r="S34">
-        <v>0.004186005916998733</v>
+        <v>0.003941472160388964</v>
       </c>
       <c r="T34">
-        <v>0.004186005916998733</v>
+        <v>0.003941472160388964</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.17169438175937</v>
+        <v>6.238731333333333</v>
       </c>
       <c r="H35">
-        <v>6.17169438175937</v>
+        <v>18.716194</v>
       </c>
       <c r="I35">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="J35">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N35">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O35">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P35">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q35">
-        <v>66.36906053845419</v>
+        <v>68.12768648945155</v>
       </c>
       <c r="R35">
-        <v>66.36906053845419</v>
+        <v>613.1491784050638</v>
       </c>
       <c r="S35">
-        <v>0.007218045285648192</v>
+        <v>0.006274444088024105</v>
       </c>
       <c r="T35">
-        <v>0.007218045285648192</v>
+        <v>0.006274444088024102</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.17169438175937</v>
+        <v>6.238731333333333</v>
       </c>
       <c r="H36">
-        <v>6.17169438175937</v>
+        <v>18.716194</v>
       </c>
       <c r="I36">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="J36">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N36">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O36">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P36">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q36">
-        <v>96.29271705218522</v>
+        <v>99.37628766297088</v>
       </c>
       <c r="R36">
-        <v>96.29271705218522</v>
+        <v>894.3865889667379</v>
       </c>
       <c r="S36">
-        <v>0.01047242776561636</v>
+        <v>0.009152387124040297</v>
       </c>
       <c r="T36">
-        <v>0.01047242776561636</v>
+        <v>0.009152387124040297</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.17169438175937</v>
+        <v>6.238731333333333</v>
       </c>
       <c r="H37">
-        <v>6.17169438175937</v>
+        <v>18.716194</v>
       </c>
       <c r="I37">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="J37">
-        <v>0.03507723390254305</v>
+        <v>0.0336010718192755</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N37">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O37">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P37">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q37">
-        <v>41.62543897133616</v>
+        <v>52.10372549495867</v>
       </c>
       <c r="R37">
-        <v>41.62543897133616</v>
+        <v>468.933529454628</v>
       </c>
       <c r="S37">
-        <v>0.004527023602451122</v>
+        <v>0.004798664526007246</v>
       </c>
       <c r="T37">
-        <v>0.004527023602451122</v>
+        <v>0.004798664526007245</v>
       </c>
     </row>
   </sheetData>
